--- a/authentication/server/src/main/resources/templates/template-role.xlsx
+++ b/authentication/server/src/main/resources/templates/template-role.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E794CA1-57C2-4252-8FD0-375B34C58644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840B1DB3-3D6D-4F6F-A4B8-92278867C415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <rPr>
@@ -64,12 +64,44 @@
     <t>角色备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>导入说明</t>
+  </si>
+  <si>
+    <r>
+      <t>注意：表头携带“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”表示该列必传。
+1、角色名称：该字段应以”ROLE_“开头且同一应用下角色名唯一；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +141,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,12 +199,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,21 +526,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CEC48-5F9C-4F04-A393-FBBF3E21069C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
